--- a/meta/en/1-2-1.xlsx
+++ b/meta/en/1-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>1.2.1: Proportion of population living below the national poverty line, by sex and age</t>
   </si>
   <si>
-    <t>National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The national poverty rate is the percentage of the total population living below the national poverty line. The rural poverty rate is the percentage of the rural population living below the national poverty line. Urban poverty rate is the percentage of the urban population living below the national poverty.</t>
   </si>
   <si>
@@ -156,18 +141,41 @@
   </si>
   <si>
     <t>Poverty line definition methodology: http://cbd.minjust.gov.kg/act/view/ru-ru/92513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,25 +242,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -565,7 +581,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,16 +631,16 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,23 +648,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -670,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -714,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
